--- a/Prac3/docs/ConfusionMatrix.xlsx
+++ b/Prac3/docs/ConfusionMatrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>secs</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t>0.64</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>Sujeto/Prediccion</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -54,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +74,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,556 +397,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P34"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>579</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
         <f>SUM(B2:K2)</f>
         <v>584</v>
       </c>
-      <c r="N2">
+      <c r="M2" s="1">
         <f>B2/L2</f>
         <v>0.99143835616438358</v>
       </c>
-      <c r="P2">
+      <c r="O2">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>270</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>314</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L11" si="0">SUM(B3:K3)</f>
-        <v>584</v>
-      </c>
-      <c r="N3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <f>SUM(B3:K3)</f>
+        <v>584</v>
+      </c>
+      <c r="M3" s="1">
         <f>C3/L3</f>
         <v>0.53767123287671237</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>414</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>170</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N4">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <f>SUM(B4:K4)</f>
+        <v>584</v>
+      </c>
+      <c r="M4" s="1">
         <f>D4/L4</f>
         <v>0.2910958904109589</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>584</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>584</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <f>SUM(B5:K5)</f>
+        <v>584</v>
+      </c>
+      <c r="M5" s="1">
         <f>E5/L5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>552</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N6">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <f>SUM(B6:K6)</f>
+        <v>584</v>
+      </c>
+      <c r="M6" s="1">
         <f>F6/L6</f>
         <v>0.9452054794520548</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>160</v>
       </c>
-      <c r="G7">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>415</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="K7">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N7">
+      <c r="L7" s="1">
+        <f>SUM(B7:K7)</f>
+        <v>584</v>
+      </c>
+      <c r="M7" s="1">
         <f>G7/L7</f>
         <v>0.71061643835616439</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
         <v>182</v>
       </c>
-      <c r="G8">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>32</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>369</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N8">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <f>SUM(B8:K8)</f>
+        <v>584</v>
+      </c>
+      <c r="M8" s="1">
         <f>H8/L8</f>
         <v>0.63184931506849318</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>256</v>
       </c>
-      <c r="H9">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>326</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N9">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <f>SUM(B9:K9)</f>
+        <v>584</v>
+      </c>
+      <c r="M9" s="1">
         <f>I9/L9</f>
         <v>0.55821917808219179</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>91</v>
       </c>
-      <c r="J10">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <v>448</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>45</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N10">
+      <c r="L10" s="1">
+        <f>SUM(B10:K10)</f>
+        <v>584</v>
+      </c>
+      <c r="M10" s="1">
         <f>J10/L10</f>
         <v>0.76712328767123283</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>106</v>
       </c>
-      <c r="J11">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
         <v>42</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>436</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="N11">
+      <c r="L11" s="1">
+        <f>SUM(B11:K11)</f>
+        <v>584</v>
+      </c>
+      <c r="M11" s="1">
         <f>K11/L11</f>
         <v>0.74657534246575341</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>2087</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:L12" si="1">SUM(C2:C11)</f>
-        <v>314</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>587</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>552</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>447</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>327</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>483</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <f t="shared" ref="L12" si="0">SUM(L2:L11)</f>
         <v>5840</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="P14" t="s">
+      <c r="M12" s="1">
+        <f>SUM(M2:M11)/10</f>
+        <v>0.71797945205479452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>561</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
+        <v>584</v>
       </c>
       <c r="L15">
         <f>SUM(B15:K15)</f>
         <v>584</v>
       </c>
-      <c r="N15">
+      <c r="M15">
         <f>B15/L15</f>
-        <v>0.96061643835616439</v>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>70.47</v>
       </c>
       <c r="P15">
-        <v>70.47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="C16">
-        <v>333</v>
-      </c>
-      <c r="D16">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:L24" si="2">SUM(B16:K16)</f>
-        <v>584</v>
-      </c>
-      <c r="N16">
+        <f>SUM(B16:K16)</f>
+        <v>584</v>
+      </c>
+      <c r="M16">
         <f>C16/L16</f>
-        <v>0.5702054794520548</v>
+        <v>0.52568493150684936</v>
+      </c>
+      <c r="O16">
+        <v>64.11</v>
       </c>
       <c r="P16">
-        <v>64.11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>234</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="D17">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N17">
+        <f>SUM(B17:K17)</f>
+        <v>584</v>
+      </c>
+      <c r="M17">
         <f>D17/L17</f>
-        <v>0.58561643835616439</v>
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>81.58</v>
       </c>
       <c r="P17">
-        <v>81.58</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>419</v>
-      </c>
-      <c r="C18">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="E18">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N18">
+        <f>SUM(B18:K18)</f>
+        <v>584</v>
+      </c>
+      <c r="M18">
         <f>E18/L18</f>
-        <v>0.24315068493150685</v>
+        <v>0.62842465753424659</v>
+      </c>
+      <c r="O18">
+        <v>67.47</v>
       </c>
       <c r="P18">
-        <v>67.47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>249</v>
-      </c>
-      <c r="C19">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N19">
+        <f>SUM(B19:K19)</f>
+        <v>584</v>
+      </c>
+      <c r="M19">
         <f>F19/L19</f>
-        <v>0.5273972602739726</v>
+        <v>0.73801369863013699</v>
+      </c>
+      <c r="P19">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>320</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="G20">
-        <v>225</v>
+        <v>356</v>
       </c>
       <c r="H20">
-        <v>12</v>
-      </c>
-      <c r="I20">
         <v>2</v>
       </c>
-      <c r="K20">
-        <v>21</v>
-      </c>
       <c r="L20">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N20">
+        <f>SUM(B20:K20)</f>
+        <v>584</v>
+      </c>
+      <c r="M20">
         <f>G20/L20</f>
-        <v>0.38527397260273971</v>
+        <v>0.6095890410958904</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>383</v>
+        <v>207</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>179</v>
-      </c>
-      <c r="I21">
-        <v>9</v>
+        <v>361</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N21">
+        <f>SUM(B21:K21)</f>
+        <v>584</v>
+      </c>
+      <c r="M21">
         <f>H21/L21</f>
-        <v>0.3065068493150685</v>
+        <v>0.61815068493150682</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>276</v>
-      </c>
-      <c r="D22">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="I22">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N22">
+        <f>SUM(B22:K22)</f>
+        <v>584</v>
+      </c>
+      <c r="M22">
         <f>I22/L22</f>
-        <v>0.44178082191780821</v>
+        <v>0.61301369863013699</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>415</v>
-      </c>
-      <c r="F23">
+        <v>218</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="K23">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N23">
+        <f>SUM(B23:K23)</f>
+        <v>584</v>
+      </c>
+      <c r="M23">
         <f>J23/L23</f>
-        <v>0.2654109589041096</v>
+        <v>0.56335616438356162</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>421</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="J24">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K24">
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
-        <v>584</v>
-      </c>
-      <c r="N24">
+        <f>SUM(B24:K24)</f>
+        <v>584</v>
+      </c>
+      <c r="M24">
         <f>K24/L24</f>
-        <v>0.21404109589041095</v>
+        <v>0.62157534246575341</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>SUM(B15:B24)</f>
-        <v>3508</v>
+        <v>2604</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="3">SUM(C15:C24)</f>
+        <f t="shared" ref="C25" si="1">SUM(C15:C24)</f>
+        <v>307</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="2">SUM(D15:D24)</f>
+        <v>292</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="3">SUM(E15:E24)</f>
+        <v>369</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="4">SUM(F15:F24)</f>
+        <v>431</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="5">SUM(G15:G24)</f>
+        <v>372</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="6">SUM(H15:H24)</f>
+        <v>363</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="7">SUM(I15:I24)</f>
+        <v>358</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="8">SUM(J15:J24)</f>
+        <v>345</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="9">SUM(K15:K24)</f>
+        <v>399</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="10">SUM(L15:L24)</f>
+        <v>5840</v>
+      </c>
+      <c r="M25">
+        <f>SUM(M15:M24)/10</f>
+        <v>0.64178082191780828</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F33">
         <v>400</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D25" si="4">SUM(D15:D24)</f>
-        <v>418</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25" si="5">SUM(E15:E24)</f>
-        <v>155</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ref="F25" si="6">SUM(F15:F24)</f>
-        <v>309</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25" si="7">SUM(G15:G24)</f>
-        <v>239</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25" si="8">SUM(H15:H24)</f>
-        <v>191</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25" si="9">SUM(I15:I24)</f>
-        <v>269</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ref="J25" si="10">SUM(J15:J24)</f>
-        <v>192</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ref="K25" si="11">SUM(K15:K24)</f>
-        <v>159</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ref="L25" si="12">SUM(L15:L24)</f>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>400</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1">
+        <v>8</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>583</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <f>SUM(B38:K38)</f>
+        <v>584</v>
+      </c>
+      <c r="M38" s="1">
+        <f>B38/L38</f>
+        <v>0.99828767123287676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <v>584</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1">
+        <f>SUM(B39:K39)</f>
+        <v>584</v>
+      </c>
+      <c r="M39" s="1">
+        <f>C39/L39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
+        <v>583</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
+        <f>SUM(B40:K40)</f>
+        <v>584</v>
+      </c>
+      <c r="M40" s="1">
+        <f>D40/L40</f>
+        <v>0.99828767123287676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>584</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
+        <f>SUM(B41:K41)</f>
+        <v>584</v>
+      </c>
+      <c r="M41" s="1">
+        <f>E41/L41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>583</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <f>SUM(B42:K42)</f>
+        <v>584</v>
+      </c>
+      <c r="M42" s="1">
+        <f>F42/L42</f>
+        <v>0.99828767123287676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <v>552</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1">
+        <f>SUM(B43:K43)</f>
+        <v>584</v>
+      </c>
+      <c r="M43" s="1">
+        <f>G43/L43</f>
+        <v>0.9452054794520548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>584</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1">
+        <f>SUM(B44:K44)</f>
+        <v>584</v>
+      </c>
+      <c r="M44" s="1">
+        <f>H44/L44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>583</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <f>SUM(B45:K45)</f>
+        <v>584</v>
+      </c>
+      <c r="M45" s="1">
+        <f>I45/L45</f>
+        <v>0.99828767123287676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <v>544</v>
+      </c>
+      <c r="K46" s="1">
+        <v>40</v>
+      </c>
+      <c r="L46" s="1">
+        <f>SUM(B46:K46)</f>
+        <v>584</v>
+      </c>
+      <c r="M46" s="1">
+        <f>J46/L46</f>
+        <v>0.93150684931506844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <v>47</v>
+      </c>
+      <c r="K47" s="1">
+        <v>533</v>
+      </c>
+      <c r="L47" s="1">
+        <f>SUM(B47:K47)</f>
+        <v>584</v>
+      </c>
+      <c r="M47" s="1">
+        <f>K47/L47</f>
+        <v>0.91267123287671237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1">
+        <f>SUM(B38:B47)</f>
+        <v>584</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48" si="11">SUM(C38:C47)</f>
+        <v>585</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <f t="shared" ref="E48:L48" si="12">SUM(E38:E47)</f>
+        <v>585</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="12"/>
+        <v>583</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="12"/>
+        <v>553</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="12"/>
+        <v>611</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="12"/>
+        <v>588</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="12"/>
+        <v>595</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="12"/>
+        <v>573</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="12"/>
         <v>5840</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>200</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>200</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <v>400</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34">
-        <v>400</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
+      <c r="M48" s="1">
+        <f>SUM(M38:M47)/10</f>
+        <v>0.97825342465753429</v>
       </c>
     </row>
   </sheetData>

--- a/Prac3/docs/ConfusionMatrix.xlsx
+++ b/Prac3/docs/ConfusionMatrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>secs</t>
   </si>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,19 +770,70 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="O14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>584</v>
-      </c>
-      <c r="L15">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>584</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <f>SUM(B15:K15)</f>
         <v>584</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <f>B15/L15</f>
         <v>1</v>
       </c>
@@ -794,17 +845,28 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
         <v>277</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>307</v>
       </c>
-      <c r="L16">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <f>SUM(B16:K16)</f>
         <v>584</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <f>C16/L16</f>
         <v>0.52568493150684936</v>
       </c>
@@ -815,18 +877,29 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
         <v>292</v>
       </c>
-      <c r="D17">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>292</v>
       </c>
-      <c r="L17">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <f>SUM(B17:K17)</f>
         <v>584</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <f>D17/L17</f>
         <v>0.5</v>
       </c>
@@ -837,18 +910,29 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>217</v>
       </c>
-      <c r="E18">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
         <v>367</v>
       </c>
-      <c r="L18">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
         <f>SUM(B18:K18)</f>
         <v>584</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <f>E18/L18</f>
         <v>0.62842465753424659</v>
       </c>
@@ -859,21 +943,31 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
         <v>152</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>431</v>
       </c>
-      <c r="L19">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
         <f>SUM(B19:K19)</f>
         <v>584</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <f>F19/L19</f>
         <v>0.73801369863013699</v>
       </c>
@@ -881,152 +975,205 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
         <v>226</v>
       </c>
-      <c r="G20">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
         <v>356</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
         <f>SUM(B20:K20)</f>
         <v>584</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f>G20/L20</f>
         <v>0.6095890410958904</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
         <v>207</v>
       </c>
-      <c r="G21">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
         <v>16</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>361</v>
       </c>
-      <c r="L21">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
         <f>SUM(B21:K21)</f>
         <v>584</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f>H21/L21</f>
         <v>0.61815068493150682</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
         <v>226</v>
       </c>
-      <c r="I22">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <v>358</v>
       </c>
-      <c r="L22">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
         <f>SUM(B22:K22)</f>
         <v>584</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <f>I22/L22</f>
         <v>0.61301369863013699</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
         <v>218</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
         <v>329</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>36</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <f>SUM(B23:K23)</f>
         <v>584</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <f>J23/L23</f>
         <v>0.56335616438356162</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
         <v>205</v>
       </c>
-      <c r="J24">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
         <v>16</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>363</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <f>SUM(B24:K24)</f>
         <v>584</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <f>K24/L24</f>
         <v>0.62157534246575341</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
         <f>SUM(B15:B24)</f>
         <v>2604</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <f t="shared" ref="C25" si="1">SUM(C15:C24)</f>
         <v>307</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f t="shared" ref="D25" si="2">SUM(D15:D24)</f>
         <v>292</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <f t="shared" ref="E25" si="3">SUM(E15:E24)</f>
         <v>369</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f t="shared" ref="F25" si="4">SUM(F15:F24)</f>
         <v>431</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f t="shared" ref="G25" si="5">SUM(G15:G24)</f>
         <v>372</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f t="shared" ref="H25" si="6">SUM(H15:H24)</f>
         <v>363</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <f t="shared" ref="I25" si="7">SUM(I15:I24)</f>
         <v>358</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <f t="shared" ref="J25" si="8">SUM(J15:J24)</f>
         <v>345</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <f t="shared" ref="K25" si="9">SUM(K15:K24)</f>
         <v>399</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <f t="shared" ref="L25" si="10">SUM(L15:L24)</f>
         <v>5840</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <f>SUM(M15:M24)/10</f>
         <v>0.64178082191780828</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>200</v>
       </c>
@@ -1034,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>200</v>
       </c>
